--- a/code/excels/kvConfig/publicshop_config.xlsx
+++ b/code/excels/kvConfig/publicshop_config.xlsx
@@ -4,89 +4,74 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView windowWidth="24930" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="param" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$B$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$C$2</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="39">
-  <si>
-    <t>商品Id</t>
-  </si>
-  <si>
-    <t>商品ID</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="28">
+  <si>
+    <t>商店类型</t>
+  </si>
+  <si>
+    <t>商品槽位</t>
+  </si>
+  <si>
+    <t>商品ID或者随机池</t>
   </si>
   <si>
     <t>商品备注</t>
   </si>
   <si>
-    <t>商品排序</t>
-  </si>
-  <si>
-    <t>商店类型</t>
-  </si>
-  <si>
-    <t>出怪频率</t>
-  </si>
-  <si>
-    <t>波束标签</t>
-  </si>
-  <si>
-    <t>波束描述</t>
-  </si>
-  <si>
-    <t>额外波束</t>
-  </si>
-  <si>
-    <t>UnitName</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>UnitList</t>
-  </si>
-  <si>
-    <t>WaitTime</t>
-  </si>
-  <si>
-    <t>SpawnCount</t>
-  </si>
-  <si>
-    <t>SpawnTick</t>
-  </si>
-  <si>
-    <t>RoundTitle</t>
-  </si>
-  <si>
-    <t>RoundDescription</t>
-  </si>
-  <si>
-    <t>ExcludingRound</t>
-  </si>
-  <si>
-    <t>Round1</t>
-  </si>
-  <si>
-    <t>小鸡巴巴</t>
-  </si>
-  <si>
-    <t>wave_1</t>
-  </si>
-  <si>
-    <t>#wave_1_Title</t>
-  </si>
-  <si>
-    <t>#wave_1_Description</t>
+    <t>商品限购数量</t>
+  </si>
+  <si>
+    <t>难度下限</t>
+  </si>
+  <si>
+    <t>ShopType</t>
+  </si>
+  <si>
+    <t>ItemSlot</t>
+  </si>
+  <si>
+    <t>ItemName</t>
+  </si>
+  <si>
+    <t>ItemLimit</t>
+  </si>
+  <si>
+    <t>MinDifficulty</t>
+  </si>
+  <si>
+    <t>GoldShop</t>
+  </si>
+  <si>
+    <t>item_building_hero_zuus</t>
+  </si>
+  <si>
+    <t>n1</t>
+  </si>
+  <si>
+    <t>item_building_hero_lina</t>
+  </si>
+  <si>
+    <t>WoodShop</t>
+  </si>
+  <si>
+    <t>RandomShop</t>
+  </si>
+  <si>
+    <t>n3</t>
   </si>
   <si>
     <t>字段注释</t>
@@ -95,21 +80,6 @@
     <t>刷怪波束表</t>
   </si>
   <si>
-    <t>英雄列表</t>
-  </si>
-  <si>
-    <t>是否启用</t>
-  </si>
-  <si>
-    <t>出怪列表</t>
-  </si>
-  <si>
-    <t>等待时间</t>
-  </si>
-  <si>
-    <t>出怪总计</t>
-  </si>
-  <si>
     <t>字段</t>
   </si>
   <si>
@@ -132,9 +102,6 @@
   </si>
   <si>
     <t>root</t>
-  </si>
-  <si>
-    <t>shopdata</t>
   </si>
 </sst>
 </file>
@@ -147,13 +114,19 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF4FC1FF"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -606,10 +579,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -618,34 +591,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -657,98 +627,101 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -768,6 +741,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1088,37 +1067,34 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9.41666666666667" style="6" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="7" customWidth="1"/>
-    <col min="3" max="3" width="8.125" customWidth="1"/>
-    <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="8.75" customWidth="1"/>
-    <col min="7" max="7" width="12.5" customWidth="1"/>
-    <col min="8" max="8" width="18.75" customWidth="1"/>
-    <col min="9" max="9" width="8.16666666666667" customWidth="1"/>
+    <col min="1" max="1" width="13.4666666666667" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.7916666666667" customWidth="1"/>
+    <col min="3" max="3" width="22.1666666666667" style="7" customWidth="1"/>
+    <col min="4" max="4" width="8.125" customWidth="1"/>
+    <col min="5" max="5" width="11.5833333333333" customWidth="1"/>
+    <col min="6" max="6" width="12.1666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" ht="31.5" customHeight="1" spans="1:9">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" s="4" customFormat="1" ht="31.5" customHeight="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1130,69 +1106,424 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" s="4" customFormat="1" ht="36.75" customHeight="1" spans="1:6">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" s="4" customFormat="1" ht="36.75" customHeight="1" spans="1:9">
-      <c r="A2" s="4" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="3" s="4" customFormat="1" ht="15.5" spans="1:6">
+      <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="9"/>
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="9"/>
+      <c r="B5" s="4">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="4">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="4">
+        <v>2</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="4">
+        <v>3</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="4">
+        <v>4</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="4">
+        <v>5</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="4">
+        <v>6</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="4">
+        <v>7</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="4">
+        <v>8</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="B15" s="4">
+        <v>1</v>
+      </c>
+      <c r="C15" s="7">
+        <v>10000</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" s="9">
+        <v>10001</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" s="7">
+        <v>10002</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" s="7">
+        <v>10000</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19" s="9">
+        <v>10001</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20" s="7">
+        <v>10002</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21" s="7">
+        <v>10000</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22">
+        <v>8</v>
+      </c>
+      <c r="C22" s="9">
+        <v>10001</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23">
+        <v>9</v>
+      </c>
+      <c r="C23" s="7">
+        <v>10002</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24" s="7">
+        <v>10000</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25">
+        <v>11</v>
+      </c>
+      <c r="C25" s="9">
+        <v>10001</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26">
+        <v>12</v>
+      </c>
+      <c r="C26" s="7">
+        <v>10002</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27">
+        <v>13</v>
+      </c>
+      <c r="C27" s="7">
+        <v>10000</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" s="4" customFormat="1" spans="1:8">
-      <c r="A3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="4">
-        <v>35</v>
-      </c>
-      <c r="E3" s="4">
-        <v>47</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>22</v>
+    <row r="28" spans="2:6">
+      <c r="B28">
+        <v>14</v>
+      </c>
+      <c r="C28" s="9">
+        <v>10001</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29">
+        <v>15</v>
+      </c>
+      <c r="C29" s="7">
+        <v>10002</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1205,157 +1536,111 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="4" width="9.41666666666667" customWidth="1"/>
-    <col min="5" max="11" width="14.5833333333333" customWidth="1"/>
+    <col min="3" max="3" width="12.8333333333333" customWidth="1"/>
+    <col min="4" max="4" width="14.5833333333333" customWidth="1"/>
+    <col min="5" max="5" width="16.6666666666667" customWidth="1"/>
+    <col min="6" max="7" width="14.5833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:11">
+    <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:7">
       <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:11">
-      <c r="A2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>9</v>
+      <c r="F4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
